--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4416302.508488688</v>
+        <v>4416302.508488689</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1235811.765881995</v>
+        <v>1319891.409441508</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>682213.881805149</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>347.46825600713</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>316.9357601192097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>22.35153719005479</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>356.8673131456191</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>146.6268199715153</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>126.8511502120404</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.2793294336578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>360.461974240824</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>334.2270161962491</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>162.5776147681365</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>38.7083658435414</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>122.6238729027259</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722633</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,10 +1901,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>57.64843562452448</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151917</v>
+        <v>70.90294072354719</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.5269768002191</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.56876306769425</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>158.9482414477866</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898725</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857177</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692859</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789328876</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373702</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789555</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346314</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415221</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539622</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3202,7 +3202,7 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857141</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329113</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463147</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415255</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3952,19 +3952,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689375</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>183.4653217847138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>83.62275566270739</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>1352.258819987542</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>983.2963030471299</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>2344.380435748108</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y2" t="n">
-        <v>2024.243304314563</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2053.247973680502</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="C5" t="n">
-        <v>1684.28545674009</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1326.01975813334</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>940.2315055350957</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>529.2456007454882</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>2443.387305656314</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>2053.247973680502</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.7458231623355</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.7458231623355</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1512.612574238668</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C8" t="n">
-        <v>1143.650057298256</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473042</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859357</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859357</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>919.5755868835452</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.1627947174721</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="C10" t="n">
-        <v>218.1627947174721</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="D10" t="n">
-        <v>218.1627947174721</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="E10" t="n">
-        <v>218.1627947174721</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="F10" t="n">
-        <v>218.1627947174721</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>444.02757685417</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610022</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.1627947174721</v>
+        <v>404.9282174162494</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,7 +5039,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,7 +5066,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,7 +5075,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5121,19 +5121,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028587</v>
+        <v>402.8011398049402</v>
       </c>
       <c r="L12" t="n">
-        <v>97.21709146028587</v>
+        <v>649.5662677114044</v>
       </c>
       <c r="M12" t="n">
-        <v>417.5524109899877</v>
+        <v>649.5662677114044</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022018</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>896.58386925998</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X13" t="n">
-        <v>668.5943183619627</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184325</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5270,19 +5270,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,10 +5294,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171746</v>
+        <v>754.8724882112627</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1075.207807740965</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>1879.619386005116</v>
       </c>
       <c r="O15" t="n">
-        <v>2536.440602918915</v>
+        <v>2159.159451223813</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5434,7 +5434,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,25 +5452,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
         <v>325.2066423583032</v>
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,40 +5504,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>246.2867756623458</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>506.9309493198497</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1275.299095712311</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N18" t="n">
-        <v>2079.710673976462</v>
+        <v>1466.525085699305</v>
       </c>
       <c r="O18" t="n">
-        <v>2328.464088060424</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352016</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150552</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170379</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735078</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,34 +5765,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>877.4353633695368</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.770682899239</v>
+        <v>1442.796708849622</v>
       </c>
       <c r="N21" t="n">
-        <v>1659.000326757765</v>
+        <v>1787.31736448724</v>
       </c>
       <c r="O21" t="n">
-        <v>2328.464088060424</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5941,19 +5941,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>498.9056400965593</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>745.6707680030233</v>
+        <v>1171.892029504114</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1479.212162784076</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1823.732818421694</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>3575.849309876492</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,43 +6209,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1113.47380280803</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.0432218861033</v>
+        <v>415.8104215925217</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581963</v>
+        <v>415.8104215925217</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581963</v>
+        <v>415.8104215925217</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581963</v>
+        <v>415.8104215925217</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925217</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123424</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557901</v>
+        <v>1338.362491317715</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347407</v>
+        <v>1114.57707610722</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609654</v>
+        <v>825.4484373207786</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550784</v>
+        <v>825.4484373207786</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181177</v>
+        <v>825.4484373207786</v>
       </c>
       <c r="X28" t="n">
-        <v>441.9005583181177</v>
+        <v>597.4588864227613</v>
       </c>
       <c r="Y28" t="n">
-        <v>441.9005583181177</v>
+        <v>597.4588864227613</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6488,19 +6488,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>498.9056400965593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L30" t="n">
-        <v>745.6707680030233</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>404.5372247402476</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108317</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229658</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506711</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308319</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6643,13 +6643,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
         <v>1489.892037025262</v>
@@ -6658,13 +6658,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010304</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,16 +6701,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1483.830826756747</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1828.351482394365</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2497.815243697024</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>3481.793971740469</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>3381.677879852603</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>3300.381331480309</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>3221.288328937957</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>3143.218472480087</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>3043.863241839949</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>2962.265324427934</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>2919.550824089922</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>2999.384087782176</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>3217.020063255132</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>3532.182679494606</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>3871.199993490132</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>4209.194673746025</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>4510.520222979767</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>4754.570558813793</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>4818.599560616159</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>4687.499641571752</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>4532.5343174013</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>4312.225769654899</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>4126.361372489053</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>3905.764293492133</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>3746.594833634157</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>3594.622345530668</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7023,16 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N36" t="n">
-        <v>2401.214434244129</v>
+        <v>2139.010959375231</v>
       </c>
       <c r="O36" t="n">
-        <v>2401.214434244129</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P36" t="n">
-        <v>2401.214434244129</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N39" t="n">
-        <v>2056.693778606511</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O39" t="n">
-        <v>2336.233843825208</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2541.256324607418</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,10 +7430,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>227.3238722865108</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>841.2209420433994</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1609.589088435861</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1954.109744073479</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506727</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,37 +7582,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7658,7 +7658,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7673,10 +7673,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.357857465301</v>
@@ -7691,7 +7691,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>384.1380876147548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>998.0351573716434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>1318.370476901345</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N45" t="n">
-        <v>2122.782055165496</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O45" t="n">
-        <v>2371.535469249458</v>
+        <v>1918.75023020086</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7834,22 +7834,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
   </sheetData>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270185</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>158.095317315752</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>87.16935584025379</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>253.2306455964539</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9957,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>362.223550097745</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>87.16935584025379</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>408.383689512866</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10431,22 +10431,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,10 +10911,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>163.8991254338651</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="14">
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>90.96703739368787</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23944,7 +23944,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338568</v>
+        <v>215.3344116750301</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.8940712227121</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24415,7 +24415,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.2632171142432</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836034</v>
+        <v>38.97256853581649</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.904254531837068e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,10 +26032,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26074,7 +26074,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>142.0868997263298</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="H2" t="n">
         <v>782058.1194754179</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="K2" t="n">
         <v>821041.7698642845</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642843</v>
       </c>
       <c r="M2" t="n">
         <v>821041.7698642847</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642848</v>
+        <v>821041.7698642845</v>
       </c>
       <c r="O2" t="n">
         <v>821041.7698642845</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.252917000187906e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758164</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905757879</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758665</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.793690575832</v>
+        <v>787.793690575907</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189636</v>
-      </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>97715.1058200254</v>
@@ -26500,13 +26500,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405709967</v>
+        <v>9155.673405710317</v>
       </c>
       <c r="C6" t="n">
+        <v>599123.5526202546</v>
+      </c>
+      <c r="D6" t="n">
         <v>599123.5526202547</v>
       </c>
-      <c r="D6" t="n">
-        <v>599123.5526202546</v>
-      </c>
       <c r="E6" t="n">
-        <v>164122.9633592288</v>
+        <v>164122.9633592296</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361252</v>
+        <v>689282.9998361253</v>
       </c>
       <c r="G6" t="n">
-        <v>689282.9998361252</v>
+        <v>689282.9998361254</v>
       </c>
       <c r="H6" t="n">
-        <v>689282.9998361255</v>
+        <v>689282.9998361254</v>
       </c>
       <c r="I6" t="n">
-        <v>689282.9998361253</v>
+        <v>689282.9998361254</v>
       </c>
       <c r="J6" t="n">
-        <v>512859.7806435323</v>
+        <v>512859.7806435324</v>
       </c>
       <c r="K6" t="n">
         <v>645614.5710086502</v>
       </c>
       <c r="L6" t="n">
-        <v>700120.0831123628</v>
+        <v>700120.0831123627</v>
       </c>
       <c r="M6" t="n">
         <v>565319.0678785257</v>
       </c>
       <c r="N6" t="n">
-        <v>700120.083112363</v>
+        <v>700120.0831123628</v>
       </c>
       <c r="O6" t="n">
         <v>700120.0831123628</v>
       </c>
       <c r="P6" t="n">
-        <v>689282.9998361253</v>
+        <v>689282.9998361251</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>7.214785613552976</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>69.30217853684388</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>1.882105749397248</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8.4055786253885</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>267.1573500492797</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,7 +27664,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>40.3956708865874</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.30532391843704</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>22.27186742265656</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>20.45602542443385</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>4.732187490914384</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>247.8146324930496</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28567,10 +28567,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28621,16 +28621,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31364,7 +31364,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>167.9005868329983</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>380.4309478731434</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>3.831619152692639</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>304.9891920977765</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>30.99097756480273</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>391.9135190475997</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>117.8878668898063</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>408.9487365571561</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32798,7 +32798,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32807,7 +32807,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33044,7 +33044,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33260,13 +33260,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724846</v>
@@ -33442,7 +33442,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S32" t="n">
         <v>76.0697047810465</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,19 +33506,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>261.0029545649506</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33743,19 +33743,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>187.706416155416</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>154.5096087057374</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33892,7 +33892,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33904,7 +33904,7 @@
         <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
         <v>562.4526372540886</v>
@@ -33971,10 +33971,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33983,16 +33983,16 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>223.1304415291734</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34135,7 +34135,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565519</v>
@@ -34208,10 +34208,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>4.797192695340897</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
@@ -34220,16 +34220,16 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34445,16 +34445,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>121.2852110416908</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813462</v>
@@ -34463,10 +34463,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>229.3640204507202</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932186</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>308.6707559036913</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>728.4316101333636</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>255.0976939849777</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>171.0147846834462</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>263.2769430883877</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>643.1795938798848</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>465.8885291500266</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>660.2148113894411</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>237.744794428193</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>502.4883505524783</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>611.4812550537694</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556565</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187487</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>237.744794428193</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>741.5782629108789</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520611</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015153</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>387.2053331890779</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>127.0285471506204</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>535.7070784156363</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.605122355565</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37552,7 +37552,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
@@ -37631,16 +37631,16 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>83.14866744315191</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37783,7 +37783,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>131.4209907335605</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,13 +37950,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>247.9090090799104</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415665</v>
@@ -38111,10 +38111,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>413.8523816763271</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4416302.508488689</v>
+        <v>4487954.301048735</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1319891.409441508</v>
+        <v>399037.7841137697</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.881805149</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6961766.03358869</v>
+        <v>6866658.509440956</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>347.46825600713</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>37.41148053031976</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>44.82579829756118</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>22.35153719005479</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>356.8673131456191</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>307.0352125644642</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>126.8511502120404</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>36.17722404847683</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>360.461974240824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>159.6068977232557</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>99.88088673627541</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>38.7083658435414</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274081</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.568157813481675</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.65400481831976</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>242.8114098523249</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>70.90294072354719</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>29.97672970727775</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2479,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>115.5269768002191</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>23.09589059976052</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>158.9482414477866</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>55.71987256739368</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539622</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689372</v>
+        <v>173.1548595538669</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>168.1406355307179</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329113</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>12.56541415113197</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415255</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>159.6397849323855</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>90.48077270931398</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>49.00108914720061</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>83.62275566270739</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1352.258819987542</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C2" t="n">
-        <v>983.2963030471299</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1738.858660051663</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1738.858660051663</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4434,22 +4436,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1583.378275356799</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4592,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X5" t="n">
-        <v>1583.378275356799</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1583.378275356799</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="6">
@@ -4656,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.1920961943572</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>240.6022717867172</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>90.48563237438145</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>409.5384547146241</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>555.4725825998845</v>
+        <v>1353.054351842972</v>
       </c>
       <c r="C8" t="n">
-        <v>555.4725825998845</v>
+        <v>1353.054351842972</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.30824683495</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473042</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129471</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859357</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859357</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.5755868835452</v>
+        <v>1739.654191907093</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.9282174162494</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="C10" t="n">
-        <v>404.9282174162494</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="D10" t="n">
-        <v>404.9282174162494</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="E10" t="n">
-        <v>404.9282174162494</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="F10" t="n">
-        <v>404.9282174162494</v>
+        <v>323.8325666641284</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>154.8327664024608</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600568</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>444.02757685417</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>404.9282174162494</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>404.9282174162494</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.9282174162494</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
@@ -5048,10 +5050,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5060,7 +5062,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>402.8011398049402</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>649.5662677114044</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>649.5662677114044</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975555</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5206,7 +5208,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1386.257169328332</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1386.257169328332</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1386.257169328332</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>1131.572681122445</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>1131.572681122445</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>1131.572681122445</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="14">
@@ -5276,34 +5278,34 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5358,25 +5360,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047986</v>
+        <v>489.179453796927</v>
       </c>
       <c r="L15" t="n">
-        <v>754.8724882112627</v>
+        <v>719.1425596652762</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.207807740965</v>
+        <v>1039.477879194978</v>
       </c>
       <c r="N15" t="n">
-        <v>1879.619386005116</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O15" t="n">
-        <v>2159.159451223813</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>896.5552164996849</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>727.619033571778</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>577.5023941594422</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>577.5023941594422</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>430.6124466615319</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>262.4371249813524</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>112.0191165292957</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5443,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>1078.203681329925</v>
       </c>
     </row>
     <row r="17">
@@ -5492,73 +5494,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5591,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>281.7397448998165</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>281.7397448998165</v>
       </c>
       <c r="M18" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.107891292278</v>
       </c>
       <c r="N18" t="n">
-        <v>1466.525085699305</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O18" t="n">
         <v>2103.272883640391</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>540.8181561206349</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>540.8181561206349</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305959</v>
+        <v>540.8181561206349</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.9038434870658</v>
+        <v>540.8181561206349</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5731,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L21" t="n">
-        <v>674.4285624571609</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M21" t="n">
-        <v>1442.796708849622</v>
+        <v>794.1790493843997</v>
       </c>
       <c r="N21" t="n">
-        <v>1787.31736448724</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O21" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>4093.273485435009</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>3924.337302507102</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U22" t="n">
-        <v>1003.591713218973</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="V22" t="n">
-        <v>1003.591713218973</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="W22" t="n">
-        <v>714.1745431820127</v>
+        <v>4495.714529408779</v>
       </c>
       <c r="X22" t="n">
-        <v>486.1849922839954</v>
+        <v>4495.714529408779</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>4274.921950265249</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5968,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L24" t="n">
-        <v>1171.892029504114</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M24" t="n">
-        <v>1479.212162784076</v>
+        <v>836.471721275012</v>
       </c>
       <c r="N24" t="n">
-        <v>1823.732818421694</v>
+        <v>1180.99237691263</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>1850.456138215289</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.849309876492</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="C25" t="n">
-        <v>3575.849309876492</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="D25" t="n">
-        <v>3575.849309876492</v>
+        <v>586.0295515144329</v>
       </c>
       <c r="E25" t="n">
-        <v>3575.849309876492</v>
+        <v>586.0295515144329</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>439.1396040165225</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>270.9642823363431</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>120.5462738842864</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.25603081147</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W25" t="n">
-        <v>3803.838860774509</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X25" t="n">
-        <v>3575.849309876492</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y25" t="n">
-        <v>3575.849309876492</v>
+        <v>736.1461909267687</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6205,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
@@ -6224,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,22 +6308,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>204.7000485785131</v>
       </c>
       <c r="L27" t="n">
-        <v>1113.47380280803</v>
+        <v>434.6631544468622</v>
       </c>
       <c r="M27" t="n">
-        <v>1433.809122337732</v>
+        <v>754.998473976564</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.809122337732</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>415.8104215925217</v>
+        <v>4244.714639971547</v>
       </c>
       <c r="C28" t="n">
-        <v>415.8104215925217</v>
+        <v>4075.77845704364</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925217</v>
+        <v>3925.661817631304</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925217</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925217</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123424</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>1338.362491317715</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T28" t="n">
-        <v>1114.57707610722</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U28" t="n">
-        <v>825.4484373207786</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V28" t="n">
-        <v>825.4484373207786</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="W28" t="n">
-        <v>825.4484373207786</v>
+        <v>4693.496770013094</v>
       </c>
       <c r="X28" t="n">
-        <v>597.4588864227613</v>
+        <v>4465.507219115077</v>
       </c>
       <c r="Y28" t="n">
-        <v>597.4588864227613</v>
+        <v>4244.714639971547</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6460,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,13 +6481,13 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6537,22 +6539,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="M30" t="n">
-        <v>404.5372247402476</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O30" t="n">
         <v>1808.163466324677</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>789.2318432855265</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>534.5473550796396</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>245.130185042679</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,7 +6691,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,7 +6703,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,19 +6779,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>642.5710836830572</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>962.906403212759</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O33" t="n">
         <v>1808.163466324677</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3481.793971740469</v>
+        <v>3926.12130983931</v>
       </c>
       <c r="C34" t="n">
-        <v>3381.677879852603</v>
+        <v>3757.185126911404</v>
       </c>
       <c r="D34" t="n">
-        <v>3300.381331480309</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="E34" t="n">
-        <v>3221.288328937957</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.218472480087</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>3043.863241839949</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>2962.265324427934</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>2919.550824089922</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>2999.384087782176</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>3217.020063255132</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>3532.182679494606</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>3871.199993490132</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>4209.194673746025</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>4510.520222979767</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>4754.570558813793</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4818.599560616159</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4687.499641571752</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.5343174013</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>4312.225769654899</v>
+        <v>4691.015547225688</v>
       </c>
       <c r="V34" t="n">
-        <v>4126.361372489053</v>
+        <v>4436.331059019802</v>
       </c>
       <c r="W34" t="n">
-        <v>3905.764293492133</v>
+        <v>4146.913888982841</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.594833634157</v>
+        <v>4146.913888982841</v>
       </c>
       <c r="Y34" t="n">
-        <v>3594.622345530668</v>
+        <v>3926.12130983931</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6941,7 +6943,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M36" t="n">
-        <v>1608.660951743751</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N36" t="n">
-        <v>2139.010959375231</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O36" t="n">
-        <v>2418.551024593929</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>4054.493082861371</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>4054.493082861371</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>4537.167121965274</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>4282.482633759388</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>4282.482633759388</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>4054.493082861371</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>4054.493082861371</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7199,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L39" t="n">
-        <v>711.1141612171745</v>
+        <v>510.3034215191122</v>
       </c>
       <c r="M39" t="n">
-        <v>1479.482307609636</v>
+        <v>754.998473976564</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.893885873787</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1137.743952460944</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>848.6153136745022</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7415,7 +7417,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7673,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.357857465301</v>
@@ -7691,7 +7693,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7733,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>359.7015465322564</v>
       </c>
       <c r="M45" t="n">
-        <v>865.5852378527474</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="N45" t="n">
-        <v>1669.996816116898</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>1918.75023020086</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>581.2185435662825</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>412.2823606383756</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1249.500210829818</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>960.371572043376</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>705.6870838374891</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="X46" t="n">
-        <v>581.2185435662825</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y46" t="n">
-        <v>581.2185435662825</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
   </sheetData>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270185</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>158.095317315752</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>245.3461395298801</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,10 +9500,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>253.2306455964539</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>246.4100825281239</v>
       </c>
       <c r="L27" t="n">
-        <v>362.223550097745</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,10 +9974,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>408.383689512866</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10212,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,22 +10427,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>137.9476282330535</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10677,16 +10679,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,13 +10919,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>212.4466810925942</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11379,13 +11381,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>196.3526521701216</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,7 +23475,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>95.76524064595222</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>9.326233471503059</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>215.3344116750301</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>256.5462686293133</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>29.8940712227121</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>87.32335486451146</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>38.97256853581649</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>230.8031257691973</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>113.0824928447104</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>118.0967168678594</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>273.6719382474454</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>61.90777612600374</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>128.1038806427808</v>
       </c>
     </row>
     <row r="44">
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>172.5464719111886</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>142.0868997263298</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>615781.3273982127</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="F2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.119475418</v>
+      </c>
+      <c r="H2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="I2" t="n">
+        <v>782058.119475418</v>
+      </c>
+      <c r="J2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="L2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="H2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642845</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642843</v>
-      </c>
       <c r="M2" t="n">
-        <v>821041.7698642847</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642845</v>
+        <v>782058.119475418</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642845</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371251</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26421,40 +26423,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758164</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.793690575907</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26473,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>599123.5526202546</v>
       </c>
       <c r="D6" t="n">
-        <v>599123.5526202547</v>
+        <v>599123.5526202546</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.9633592296</v>
+        <v>164122.9633592288</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361253</v>
+        <v>689282.9998361252</v>
       </c>
       <c r="G6" t="n">
-        <v>689282.9998361254</v>
+        <v>689282.9998361255</v>
       </c>
       <c r="H6" t="n">
-        <v>689282.9998361254</v>
+        <v>689282.9998361252</v>
       </c>
       <c r="I6" t="n">
-        <v>689282.9998361254</v>
+        <v>689282.9998361255</v>
       </c>
       <c r="J6" t="n">
         <v>512859.7806435324</v>
       </c>
       <c r="K6" t="n">
-        <v>645614.5710086502</v>
+        <v>689282.9998361251</v>
       </c>
       <c r="L6" t="n">
-        <v>700120.0831123627</v>
+        <v>689282.9998361253</v>
       </c>
       <c r="M6" t="n">
-        <v>565319.0678785257</v>
+        <v>554481.984602288</v>
       </c>
       <c r="N6" t="n">
-        <v>700120.0831123628</v>
+        <v>689282.9998361255</v>
       </c>
       <c r="O6" t="n">
-        <v>700120.0831123628</v>
+        <v>689282.9998361252</v>
       </c>
       <c r="P6" t="n">
-        <v>689282.9998361251</v>
+        <v>689282.9998361252</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,19 +26743,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.214785613552976</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>348.8264581257338</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>122.4210228010667</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6835682680295</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27616,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>8.4055786253885</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,10 +27666,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>79.2027260915894</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>40.3956708865874</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>110.2567385980923</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.27186742265656</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>195.0761438974272</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>56.29000210551973</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>247.8146324930496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31379,7 +31381,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9005868329983</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>278.4799167015759</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,34 +32074,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>304.9891920977765</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,22 +32314,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>17.85254163266225</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>391.9135190475997</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
@@ -32336,13 +32338,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,25 +32463,25 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041496</v>
       </c>
       <c r="L20" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32551,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>148.1449823495585</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>408.9487365571561</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,16 +32788,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32804,13 +32806,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>298.3479517492769</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33026,28 +33028,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33260,22 +33262,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>116.1540744796866</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33284,7 +33286,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33442,7 +33444,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
         <v>76.0697047810465</v>
@@ -33497,22 +33499,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>254.5282761518564</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
@@ -33734,31 +33736,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>158.0642534345934</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>187.706416155416</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33971,31 +33973,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>389.30075357601</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34135,7 +34137,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565519</v>
@@ -34153,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34208,19 +34210,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34451,31 +34453,31 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>32.84984768042574</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>229.3640204507202</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35024,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932186</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>308.6707559036913</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>626.4805789617961</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>395.9215781178194</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>171.0147846834462</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>144.4763396708819</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>643.1795938798848</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>471.7160121775401</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>660.2148113894411</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>502.4883505524783</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>482.8363129748839</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>108.5686435537649</v>
       </c>
       <c r="L27" t="n">
-        <v>611.4812550537694</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>439.7251043076682</v>
       </c>
       <c r="N30" t="n">
-        <v>741.5782629108789</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>387.2053331890779</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>602.5289384120766</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>390.3502189581784</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>535.7070784156363</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>247.1667196539917</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>81.10496900926086</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>265.1358132040107</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>413.8523816763271</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4487954.301048735</v>
+        <v>4480937.286157024</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>399037.7841137697</v>
+        <v>549709.3235878641</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>321.5584859445101</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.41148053031976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -788,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>44.82579829756118</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>128.9001284632685</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.0352125644642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>36.17722404847683</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>159.6068977232557</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>166.0101341835831</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>99.88088673627541</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.568157813481675</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.4743733236638</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.65400481831976</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>242.8114098523249</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>207.0920728594996</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>29.97672970727775</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>23.09589059976052</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,16 +2532,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>55.71987256739368</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>206.8933087008745</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>173.1548595538669</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670917</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>25.82923535834106</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>168.1406355307179</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>12.56541415113197</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>176.8688121773847</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>159.6397849323855</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.48077270931398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>49.00108914720061</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>203.1906585374994</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.334734821698</v>
+        <v>1902.75190621448</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>1533.789389274068</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1175.523690667317</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>789.7354380690731</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>378.7495332794655</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>2169.72394915887</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y2" t="n">
-        <v>2131.93457488582</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610024</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220517</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610024</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>511.3398517472591</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>184.1451317832619</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1520.223993023726</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1210.087414675782</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4661,28 +4661,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>240.6022717867172</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>90.48563237438145</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1353.054351842972</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1353.054351842972</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2529.462086792381</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2275.700301430472</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1944.637414086902</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.654191907093</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.654191907093</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.7225141620388</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>470.7225141620388</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>470.7225141620388</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>470.7225141620388</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>323.8325666641284</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>154.8327664024608</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620388</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>470.7225141620388</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,34 +5038,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>939.1942790685366</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>729.1316371486756</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1386.257169328332</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1386.257169328332</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1386.257169328332</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.572681122445</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.572681122445</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>1131.572681122445</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y13" t="n">
-        <v>910.7801019789154</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>489.179453796927</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L15" t="n">
-        <v>719.1425596652762</v>
+        <v>841.2209420433995</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.477879194978</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.889457459129</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>896.5552164996849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>727.619033571778</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>577.5023941594422</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>577.5023941594422</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>430.6124466615319</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>262.4371249813524</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>112.0191165292957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.996260473455</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1298.996260473455</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.203681329925</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>281.7397448998165</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>281.7397448998165</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M18" t="n">
-        <v>1050.107891292278</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N18" t="n">
-        <v>1854.519469556429</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5709,16 +5709,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>540.8181561206349</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>540.8181561206349</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>540.8181561206349</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>540.8181561206349</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,64 +5740,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>327.180197328635</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M21" t="n">
-        <v>794.1790493843997</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4093.273485435009</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3924.337302507102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365625</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U22" t="n">
-        <v>4525.994054365625</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V22" t="n">
-        <v>4525.994054365625</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W22" t="n">
-        <v>4495.714529408779</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>4495.714529408779</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>4274.921950265249</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>836.471721275012</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>836.471721275012</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1180.99237691263</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1850.456138215289</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>736.1461909267687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>736.1461909267687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>586.0295515144329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>586.0295515144329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>439.1396040165225</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>270.9642823363431</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>120.5462738842864</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>964.135741824786</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>964.135741824786</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>736.1461909267687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>736.1461909267687</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,46 +6205,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6308,22 +6308,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>204.7000485785131</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>434.6631544468622</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>754.998473976564</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4244.714639971547</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>4075.77845704364</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>3925.661817631304</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>4749.779469576118</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>4693.496770013094</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>4465.507219115077</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y28" t="n">
-        <v>4244.714639971547</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>779.5615433385053</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1214.889396603097</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6651,22 +6651,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>789.2318432855265</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>534.5473550796396</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W31" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X31" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y31" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6782,22 +6782,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>642.5710836830572</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>962.906403212759</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3926.12130983931</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C34" t="n">
-        <v>3757.185126911404</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D34" t="n">
-        <v>3607.068487499068</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>273.7252366379396</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>123.3072281858829</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4691.015547225688</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4436.331059019802</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>4146.913888982841</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>4146.913888982841</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y34" t="n">
-        <v>3926.12130983931</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7019,25 +7019,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>894.5540770733951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>1214.889396603097</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N36" t="n">
-        <v>1559.410052240715</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4054.493082861371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4054.493082861371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3904.376443449035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.85945949167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4537.167121965274</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4282.482633759388</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>4282.482633759388</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X37" t="n">
-        <v>4054.493082861371</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>4054.493082861371</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,25 +7186,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>510.3034215191122</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>754.998473976564</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>412.2823606383756</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>412.2823606383756</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2823606383756</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1137.743952460944</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>848.6153136745022</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>593.9308254686154</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>593.9308254686154</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>593.9308254686154</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>593.9308254686154</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,25 +7405,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>738.0704661731477</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1058.405785702849</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>820.5263570570736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>820.5263570570736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>359.7015465322564</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.069692924718</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1249.500210829818</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>960.371572043376</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>705.6870838374891</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>416.2699138005285</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X46" t="n">
-        <v>416.2699138005285</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y46" t="n">
-        <v>416.2699138005285</v>
+        <v>1004.256011089124</v>
       </c>
     </row>
   </sheetData>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>245.3461395298801</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9260,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>246.4100825281239</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>396.4775252873441</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>212.4466810925942</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>196.3526521701216</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.2352820653734</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>95.76524064595222</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>9.326233471503059</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>14.45548819888961</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>256.5462686293133</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>87.32335486451146</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24660,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>230.8031257691973</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>11.69134465122028</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>113.0824928447104</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>140.3375291694993</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>84.59001010593093</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>118.0967168678594</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>273.6719382474454</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>61.90777612600374</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.1038806427808</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5464719111886</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>15.3939948145954</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="F2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="H2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="I2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="J2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="K2" t="n">
         <v>782058.1194754177</v>
-      </c>
-      <c r="G2" t="n">
-        <v>782058.119475418</v>
-      </c>
-      <c r="H2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.119475418</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="K2" t="n">
-        <v>782058.1194754175</v>
       </c>
       <c r="L2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="M2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="N2" t="n">
         <v>782058.1194754177</v>
-      </c>
-      <c r="N2" t="n">
-        <v>782058.119475418</v>
       </c>
       <c r="O2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758329</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758053</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405710317</v>
+        <v>9155.673405709967</v>
       </c>
       <c r="C6" t="n">
         <v>599123.5526202546</v>
       </c>
       <c r="D6" t="n">
-        <v>599123.5526202546</v>
+        <v>599123.5526202547</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.9633592288</v>
+        <v>163148.3720995073</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361252</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="G6" t="n">
-        <v>689282.9998361255</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="H6" t="n">
-        <v>689282.9998361252</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="I6" t="n">
-        <v>689282.9998361255</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="J6" t="n">
-        <v>512859.7806435324</v>
+        <v>511885.1893838105</v>
       </c>
       <c r="K6" t="n">
-        <v>689282.9998361251</v>
+        <v>688308.4085764035</v>
       </c>
       <c r="L6" t="n">
-        <v>689282.9998361253</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="M6" t="n">
-        <v>554481.984602288</v>
+        <v>553507.3933425666</v>
       </c>
       <c r="N6" t="n">
-        <v>689282.9998361255</v>
+        <v>688308.4085764036</v>
       </c>
       <c r="O6" t="n">
-        <v>689282.9998361252</v>
+        <v>688308.4085764035</v>
       </c>
       <c r="P6" t="n">
-        <v>689282.9998361252</v>
+        <v>688308.4085764036</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>92.22568407628489</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.8264581257338</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>122.4210228010667</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>79.2027260915894</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>110.2567385980923</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>195.0761438974272</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>50.4381861740747</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>56.29000210551973</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -30273,13 +30273,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-5.056512730102795e-14</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31141,28 +31141,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31381,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>111.734380307287</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31849,28 +31849,28 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>278.4799167015759</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>98.44906376001131</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,37 +32077,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>351.2318611741437</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,37 +32314,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>17.85254163266225</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,25 +32463,25 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041496</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32557,31 +32557,31 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>148.1449823495585</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>158.6223655444452</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32791,34 +32791,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>298.3479517492769</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33028,34 +33028,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>116.1540744796866</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,37 +33499,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>254.5282761518564</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33739,19 +33739,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>158.0642534345934</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>389.30075357601</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34450,28 +34450,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>32.84984768042574</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
@@ -35497,19 +35497,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>626.4805789617961</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>349.7151385922964</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>395.9215781178194</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>583.5178266977287</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>144.4763396708819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>471.7160121775401</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>482.8363129748839</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>108.5686435537649</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>439.7251043076682</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>602.5289384120766</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>390.3502189581784</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>265.1358132040107</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37560,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>247.1667196539917</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>81.10496900926086</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>265.1358132040107</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4480937.286157024</v>
+        <v>4485876.549006056</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>549709.3235878641</v>
+        <v>595765.5793396856</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6866658.509440956</v>
+        <v>6866658.509440955</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>321.5584859445101</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>271.7612099808829</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>59.35297612243393</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>360.4840829176713</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>128.9001284632685</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>166.0101341835831</v>
+        <v>26.53815412835792</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.7806877295494</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>26.97444673954853</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.4743733236638</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,7 +2061,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>207.0920728594996</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.8933087008745</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,10 +3009,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>146.1854691670917</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>25.82923535834106</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>176.8688121773847</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.64843562452403</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.64843562452408</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>203.1906585374994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1902.75190621448</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C2" t="n">
-        <v>1533.789389274068</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D2" t="n">
-        <v>1175.523690667317</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="E2" t="n">
-        <v>789.7354380690731</v>
+        <v>753.3585633793437</v>
       </c>
       <c r="F2" t="n">
-        <v>378.7495332794655</v>
+        <v>342.3726585897361</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>328.449254528327</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>2289.351746278601</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>490.6129053604687</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>490.6129053604687</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>490.6129053604687</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D5" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E5" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F5" t="n">
-        <v>525.2632558086682</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G5" t="n">
-        <v>511.3398517472591</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>184.1451317832619</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4609,10 +4609,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,25 +4652,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
         <v>1222.906241876376</v>
@@ -4795,19 +4795,19 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224074</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2529.462086792381</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="U8" t="n">
-        <v>2275.700301430472</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="V8" t="n">
-        <v>1944.637414086902</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W8" t="n">
-        <v>1591.868758816787</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.868758816787</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M12" t="n">
-        <v>1220.905903778934</v>
+        <v>897.6601296826479</v>
       </c>
       <c r="N12" t="n">
-        <v>2025.317482043085</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O12" t="n">
         <v>2371.535469249458</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>447.8017392184324</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184324</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5281,7 +5281,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5360,25 +5360,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>263.5382936126482</v>
+        <v>426.2666988653375</v>
       </c>
       <c r="L15" t="n">
-        <v>841.2209420433995</v>
+        <v>1040.163768622226</v>
       </c>
       <c r="M15" t="n">
-        <v>1609.589088435861</v>
+        <v>1808.531915014687</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.109744073479</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5497,31 +5497,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5597,16 +5597,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>802.0403666355641</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M18" t="n">
-        <v>1570.408513028025</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N18" t="n">
-        <v>2374.820091292176</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5700,13 +5700,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
         <v>614.6238123952637</v>
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,10 +5773,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,16 +5828,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M21" t="n">
         <v>1479.482307609636</v>
@@ -5849,7 +5849,7 @@
         <v>2283.893885873787</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1089.812348494162</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>800.6837097077201</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>545.9992215018333</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,10 +5974,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5989,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -5998,16 +5998,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>954.8146123150548</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131613</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,16 +6454,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.3450129705745</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3450129705745</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705745</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
         <v>359.1696912903951</v>
@@ -6618,7 +6618,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>527.3450129705745</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>527.3450129705745</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.3450129705745</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6779,16 +6779,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>273.7252366379396</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>123.3072281858829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7028,16 +7028,16 @@
         <v>865.5852378527472</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7131,16 +7131,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>496.665036439558</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,16 +7192,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7250,19 +7250,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7408,19 +7408,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7429,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,28 +7478,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1004.256011089124</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9497,10 +9497,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>178.9948136634593</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>396.4775252873441</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424428</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.2352820653734</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>14.45548819888961</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24657,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.69134465122028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>63.5174896654846</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>140.3375291694993</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>84.59001010593093</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>2.105225817279774</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>48.8408432116525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.3939948145954</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642829</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.769864283</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
         <v>782058.1194754178</v>
@@ -26334,25 +26334,25 @@
         <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="J2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="K2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="L2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="N2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="P2" t="n">
         <v>782058.1194754178</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758329</v>
+        <v>787.7936905759102</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759088</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
@@ -26444,22 +26444,22 @@
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="O4" t="n">
+        <v>787.793690575921</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758053</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,16 +26487,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>9155.673405709967</v>
       </c>
       <c r="C6" t="n">
-        <v>599123.5526202546</v>
+        <v>599123.5526202545</v>
       </c>
       <c r="D6" t="n">
-        <v>599123.5526202547</v>
+        <v>599123.5526202545</v>
       </c>
       <c r="E6" t="n">
-        <v>163148.3720995073</v>
+        <v>164025.5042332573</v>
       </c>
       <c r="F6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="G6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="H6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="I6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101531</v>
       </c>
       <c r="J6" t="n">
-        <v>511885.1893838105</v>
+        <v>512762.32151756</v>
       </c>
       <c r="K6" t="n">
-        <v>688308.4085764035</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="L6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101532</v>
       </c>
       <c r="M6" t="n">
-        <v>553507.3933425666</v>
+        <v>554384.5254763159</v>
       </c>
       <c r="N6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101531</v>
       </c>
       <c r="O6" t="n">
-        <v>688308.4085764035</v>
+        <v>689185.5407101529</v>
       </c>
       <c r="P6" t="n">
-        <v>688308.4085764036</v>
+        <v>689185.5407101532</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>92.22568407628489</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>52.16156278347421</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>152.792562827585</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>23.03118778159273</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>50.4381861740747</v>
+        <v>189.9101662292999</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594878</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,10 +28089,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -30273,13 +30273,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-5.056512730102795e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31372,7 +31372,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31849,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>252.6713260851629</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>98.44906376001131</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32080,19 +32080,19 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.74832847964836</v>
       </c>
       <c r="L15" t="n">
-        <v>351.2318611741437</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32101,7 +32101,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32320,7 +32320,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>353.0329386354462</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,7 +32329,7 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32496,7 +32496,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S20" t="n">
         <v>76.06970478104648</v>
@@ -32569,10 +32569,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>158.6223655444452</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -33207,7 +33207,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33274,7 +33274,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33511,7 +33511,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33748,7 +33748,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>225.9628574215825</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33757,10 +33757,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33985,7 +33985,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34222,7 +34222,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>576.2423559131445</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>349.7151385922964</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>164.372126517868</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5178266977287</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>585.3189041590311</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004661</v>
@@ -35977,7 +35977,7 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>343.1107267700522</v>
+        <v>45.02040624912903</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36922,7 +36922,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37159,7 +37159,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>265.1358132040107</v>
+        <v>573.9635196818027</v>
       </c>
       <c r="O36" t="n">
         <v>676.2260215178376</v>
@@ -37405,10 +37405,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,10 +37560,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37633,7 +37633,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37870,7 +37870,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
